--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1332248.235919906</v>
+        <v>1328111.078669754</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283208</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>46.89681796609811</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -718,13 +718,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>42.68052496925059</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>21.34564281090686</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>268.988445595424</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>130.6528593994773</v>
+        <v>5.683555030610385</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>150.5850684549499</v>
+        <v>51.27659234081883</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0.7016827609179699</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>220.4583560726043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>36.29948086284261</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>196.4017961483592</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>33.8289189178753</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>185.4048731212365</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>24.83266606353109</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>11.79076481679217</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187844</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>100.2041656279965</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>98.45284414232987</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187844</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428173</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>71.79687029691033</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.831980181942</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>133.1319933510085</v>
+        <v>80.08971311158234</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936148</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238325</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710053</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>41.33703994143001</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>28.75188085811999</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>19.91555826189198</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>55.52079624060465</v>
+        <v>176.1811323375794</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>177.1006680594876</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>143.4157347120547</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>134.5665975534139</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1248.370234799863</v>
+        <v>1313.273607737845</v>
       </c>
       <c r="C2" t="n">
-        <v>1248.370234799863</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="D2" t="n">
-        <v>1248.370234799863</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2514.968805202077</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2306.223163807901</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.313418796629</v>
+        <v>2052.642103072081</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2052.642103072081</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182944</v>
+        <v>1699.873447801967</v>
       </c>
       <c r="X2" t="n">
-        <v>1248.370234799863</v>
+        <v>1699.873447801967</v>
       </c>
       <c r="Y2" t="n">
-        <v>1248.370234799863</v>
+        <v>1699.873447801967</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>507.2413987429755</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>801.9449557744472</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733667</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330613</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506774</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4448,10 +4448,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>367.0729169938204</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C4" t="n">
-        <v>198.1367340659135</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>198.1367340659135</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U4" t="n">
-        <v>842.5499843432374</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="V4" t="n">
-        <v>587.8654961373505</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="W4" t="n">
-        <v>587.8654961373505</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="X4" t="n">
-        <v>587.8654961373505</v>
+        <v>1109.244414851923</v>
       </c>
       <c r="Y4" t="n">
-        <v>367.0729169938204</v>
+        <v>1109.244414851923</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1380.34282005186</v>
+        <v>1254.111199477247</v>
       </c>
       <c r="C5" t="n">
-        <v>1380.34282005186</v>
+        <v>1254.111199477247</v>
       </c>
       <c r="D5" t="n">
-        <v>1380.34282005186</v>
+        <v>1254.111199477247</v>
       </c>
       <c r="E5" t="n">
         <v>1248.370234799863</v>
@@ -4567,16 +4567,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926625</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583054</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W5" t="n">
-        <v>1753.80857831294</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X5" t="n">
-        <v>1380.34282005186</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y5" t="n">
-        <v>1380.34282005186</v>
+        <v>1254.111199477247</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>590.2049751143493</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049857</v>
+        <v>884.908532145821</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>648.272596813117</v>
+        <v>716.897187706548</v>
       </c>
       <c r="C7" t="n">
-        <v>648.272596813117</v>
+        <v>547.9610047786412</v>
       </c>
       <c r="D7" t="n">
-        <v>498.1559574007813</v>
+        <v>397.8443653663054</v>
       </c>
       <c r="E7" t="n">
-        <v>350.2428638183882</v>
+        <v>249.9312717839123</v>
       </c>
       <c r="F7" t="n">
-        <v>203.3529163204778</v>
+        <v>103.0413242860019</v>
       </c>
       <c r="G7" t="n">
         <v>51.2467865680031</v>
@@ -4725,25 +4725,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4764,13 +4764,13 @@
         <v>1347.327782578335</v>
       </c>
       <c r="W7" t="n">
-        <v>1057.910612541374</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="X7" t="n">
-        <v>829.9210616433568</v>
+        <v>1119.338231680318</v>
       </c>
       <c r="Y7" t="n">
-        <v>829.9210616433568</v>
+        <v>898.5456525367878</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1621.991392838317</v>
+        <v>1249.079005265437</v>
       </c>
       <c r="C8" t="n">
-        <v>1621.991392838317</v>
+        <v>1249.079005265437</v>
       </c>
       <c r="D8" t="n">
-        <v>1263.725694231566</v>
+        <v>1249.079005265437</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9374416333219</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872912</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4825,31 +4825,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056584</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="W8" t="n">
-        <v>2231.276441056584</v>
+        <v>1622.544763526517</v>
       </c>
       <c r="X8" t="n">
-        <v>2231.276441056584</v>
+        <v>1249.079005265437</v>
       </c>
       <c r="Y8" t="n">
-        <v>2008.591232902438</v>
+        <v>1249.079005265437</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118698</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
-        <v>1675.63996629486</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2238.100841080694</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.2127024906389</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C10" t="n">
-        <v>349.2765195627319</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D10" t="n">
-        <v>199.1598801503962</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4989,25 +4989,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1599.779977788798</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1376.801496983533</v>
       </c>
       <c r="U10" t="n">
-        <v>1438.060467399387</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="V10" t="n">
-        <v>1438.060467399387</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="W10" t="n">
-        <v>1148.643297362426</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="X10" t="n">
-        <v>920.6537464644088</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="Y10" t="n">
-        <v>699.8611673208786</v>
+        <v>1087.683159487371</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5038,22 +5038,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5129,16 +5129,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>274.8772357154533</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>127.9872882175429</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>127.9872882175429</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5235,16 +5235,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1501.108204237296</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="14">
@@ -5272,46 +5272,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>432.9862109052762</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>286.0962634073658</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>118.9001641222457</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5463,25 +5463,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580261</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5497,31 +5497,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="21">
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>931.4710609784063</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5348780504994</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>489.8360330454435</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>341.9229394630504</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>195.03299196514</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1878.013763195024</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1623.329274989137</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1333.912104952176</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1333.912104952176</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y22" t="n">
-        <v>1113.119525808646</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="24">
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O24" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
         <v>261.0127623330919</v>
@@ -6138,22 +6138,22 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192586</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6253,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N27" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O27" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>781.8178837532264</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>781.8178837532264</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
         <v>484.8112968429803</v>
@@ -6381,16 +6381,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6429,7 +6429,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>781.8178837532264</v>
+        <v>835.3959446011316</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
         <v>1948.813509611463</v>
@@ -6454,31 +6454,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6490,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2418.621364762389</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>2913.946970978148</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>3511.3254586047</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N30" t="n">
-        <v>4138.923422159307</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C32" t="n">
         <v>1948.813509611463</v>
@@ -6691,19 +6691,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6718,34 +6718,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K33" t="n">
-        <v>244.2098454714573</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L33" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,28 +6925,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
@@ -6961,25 +6961,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O36" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2824.769373306004</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>2655.833190378097</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>2505.716550965761</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>2357.803457383368</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>2337.686731866305</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>2337.686731866305</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4507.978318053499</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4288.37685307644</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3999.301626420638</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3744.617138214751</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3455.199968177791</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3227.210417279774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3006.417838136244</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7165,43 +7165,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>874.868625753638</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>705.9324428257311</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282754</v>
+        <v>555.8158034133953</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458823</v>
+        <v>407.9027098310022</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797189</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2390.881471216014</v>
+        <v>2269.002343845332</v>
       </c>
       <c r="T40" t="n">
-        <v>2171.280006238955</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694708</v>
@@ -7435,25 +7435,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913447</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>2715.159942084667</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>2715.159942084667</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>2817.800993781637</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N42" t="n">
-        <v>3445.398957336244</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O42" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445482</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1907.987318831765</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7645,19 +7645,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
@@ -7669,7 +7669,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O45" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2794.50775589162</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C46" t="n">
-        <v>2794.50775589162</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D46" t="n">
-        <v>2794.50775589162</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E46" t="n">
-        <v>2646.594662309226</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="F46" t="n">
-        <v>2646.594662309226</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="G46" t="n">
-        <v>2479.398563024106</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467152</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W46" t="n">
-        <v>3388.154264430192</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X46" t="n">
-        <v>3160.164713532175</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y46" t="n">
-        <v>2939.372134388645</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
   </sheetData>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>211.0329012241559</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>168.7434581780642</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>168.7434581780638</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>54.95314511566545</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>186.4490126143854</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>106.4657939283486</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>66.73277020259152</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>115.4620467826928</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>213.918890572245</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>65.31997266427233</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462314</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>187.7316302469143</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>65.54986409393062</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462314</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>145.6085800303779</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>85.45266000108626</v>
+        <v>138.4949402405124</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>43.26526345295437</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465767</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>119.8635921600924</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>125.5054897610393</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
-        <v>125.5054897610399</v>
+        <v>4.845153664065236</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,16 +25839,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>109.4223302771034</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>36.4162454698826</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>30.95754073885493</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>958647.6759253589</v>
+        <v>958647.675925359</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>958647.675925359</v>
+        <v>958647.6759253589</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>958647.675925359</v>
+        <v>958647.6759253589</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>935537.917223655</v>
+        <v>935537.9172236549</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>935537.9172236552</v>
+        <v>935537.917223655</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>935537.917223655</v>
+        <v>935537.9172236549</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>935537.9172236549</v>
+        <v>935537.9172236548</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>935537.917223655</v>
+        <v>935537.9172236547</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>935537.9172236552</v>
+        <v>935537.9172236548</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>935537.9172236552</v>
+        <v>935537.9172236547</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>935537.917223655</v>
+        <v>935537.9172236548</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>935537.9172236549</v>
+        <v>935537.917223655</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>935537.9172236552</v>
+        <v>935537.9172236549</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
         <v>492625.0619185701</v>
       </c>
       <c r="E2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140038</v>
       </c>
       <c r="F2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="G2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="H2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="I2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="J2" t="n">
+        <v>484287.9598140034</v>
+      </c>
+      <c r="K2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="L2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="M2" t="n">
         <v>484287.9598140037</v>
       </c>
-      <c r="H2" t="n">
+      <c r="N2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="O2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="I2" t="n">
-        <v>484287.9598140036</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="P2" t="n">
         <v>484287.9598140037</v>
-      </c>
-      <c r="K2" t="n">
-        <v>484287.9598140038</v>
-      </c>
-      <c r="L2" t="n">
-        <v>484287.9598140037</v>
-      </c>
-      <c r="M2" t="n">
-        <v>484287.9598140036</v>
-      </c>
-      <c r="N2" t="n">
-        <v>484287.9598140038</v>
-      </c>
-      <c r="O2" t="n">
-        <v>484287.9598140037</v>
-      </c>
-      <c r="P2" t="n">
-        <v>484287.9598140036</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289268</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="C4" t="n">
         <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
+        <v>8117.312426731974</v>
+      </c>
+      <c r="G4" t="n">
         <v>8117.312426731975</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
         <v>8117.312426731974</v>
@@ -26450,16 +26450,16 @@
         <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="P4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-849382.4943590579</v>
+        <v>-849382.4943590583</v>
       </c>
       <c r="C6" t="n">
+        <v>265369.2892168616</v>
+      </c>
+      <c r="D6" t="n">
         <v>265369.2892168617</v>
       </c>
-      <c r="D6" t="n">
-        <v>265369.2892168616</v>
-      </c>
       <c r="E6" t="n">
-        <v>-132437.3240611817</v>
+        <v>-132784.7033155382</v>
       </c>
       <c r="F6" t="n">
-        <v>375048.1175633644</v>
+        <v>374700.7383090075</v>
       </c>
       <c r="G6" t="n">
-        <v>375048.1175633647</v>
+        <v>374700.7383090075</v>
       </c>
       <c r="H6" t="n">
-        <v>375048.1175633644</v>
+        <v>374700.738309008</v>
       </c>
       <c r="I6" t="n">
-        <v>375048.1175633645</v>
+        <v>374700.7383090075</v>
       </c>
       <c r="J6" t="n">
-        <v>207442.9397533821</v>
+        <v>207095.5604990248</v>
       </c>
       <c r="K6" t="n">
-        <v>375048.1175633647</v>
+        <v>374700.7383090075</v>
       </c>
       <c r="L6" t="n">
-        <v>375048.1175633644</v>
+        <v>374700.7383090075</v>
       </c>
       <c r="M6" t="n">
-        <v>242440.8238344376</v>
+        <v>242093.4445800809</v>
       </c>
       <c r="N6" t="n">
-        <v>375048.1175633647</v>
+        <v>374700.7383090076</v>
       </c>
       <c r="O6" t="n">
-        <v>375048.1175633646</v>
+        <v>374700.7383090076</v>
       </c>
       <c r="P6" t="n">
-        <v>375048.1175633644</v>
+        <v>374700.7383090078</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26822,13 +26822,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>76.55539743269625</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>327.0505757092184</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>158.4863373710304</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,22 +27590,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>17.23870852577659</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27624,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>251.2775106727844</v>
+        <v>376.2468150416514</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>15.72153158985424</v>
+        <v>115.0300077039853</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.2286873113438</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>165.7795825834492</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,25 +28061,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>158.3629794988948</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>89.82535797284137</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28976,7 +28976,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>-7.541226902200529e-12</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29213,7 +29213,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>-5.937429109026293e-12</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29432,7 +29432,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -29514,7 +29514,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29729,7 +29729,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -29751,7 +29751,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29915,7 +29915,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-7.541226902200529e-12</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31849,10 +31849,10 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>575.5951359912044</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496632</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
@@ -31861,7 +31861,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32074,7 +32074,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32092,10 +32092,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593843</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,40 +32548,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32739,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,28 +32785,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P24" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,10 +32815,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32864,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32976,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,28 +33022,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P27" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,10 +33052,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33213,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,25 +33259,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
-        <v>175.6052721551099</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,10 +33289,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
-        <v>138.5955196772183</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,16 +33523,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,46 +33572,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175693</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,46 +33809,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>377.6350660745949</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,46 +34046,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>245.8118639189572</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,46 +34283,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175693</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P45" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,46 +34520,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>397.6203974676407</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>535.6747904601048</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>355.3309544215487</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>304.6326742391977</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>302.9297349452399</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35497,10 +35497,10 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691861</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663299</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35509,7 +35509,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35740,10 +35740,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795101</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,13 +36354,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36372,13 +36372,13 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P24" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36524,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P27" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>37.76383318075094</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>0.7540807028593151</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902966</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>235.5010321525766</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>103.6778299969389</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902966</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P45" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1328111.078669754</v>
+        <v>1329871.60897254</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283208</v>
+        <v>416855.1052283194</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>254.2433587783628</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>46.89681796609811</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.34564281090686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -837,7 +837,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>23.94563726208645</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>5.683555030610385</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>79.81437451940045</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>90.99395968649097</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>51.27659234081883</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7016827609179699</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>64.76631546161437</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>36.29948086284261</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>196.4017961483592</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>33.8289189178753</v>
+        <v>93.62264337260652</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,10 +1666,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>37.41782514684017</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>24.83266606353109</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2089,13 +2089,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187844</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>44.7513807668926</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>100.2041656279965</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187844</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>83.06560892428173</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>72.78315874934748</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.831980181942</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>94.64226186542876</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>80.08971311158234</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2955,16 +2955,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>103.1686991936148</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>33.82891891787488</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,13 +3009,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.1376433238325</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710053</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>41.74133133758713</v>
       </c>
       <c r="H34" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>28.75188085811999</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>41.55695577161193</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695349</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3675,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>176.1811323375794</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>257.3954601792086</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>101.6969570046971</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>134.5665975534139</v>
+        <v>51.3656974031032</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1313.273607737845</v>
+        <v>1071.22480659549</v>
       </c>
       <c r="C2" t="n">
-        <v>944.3110907974333</v>
+        <v>1071.22480659549</v>
       </c>
       <c r="D2" t="n">
-        <v>944.3110907974333</v>
+        <v>1071.22480659549</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974333</v>
+        <v>685.4365539972457</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>678.4910532480422</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4330,10 +4330,10 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2514.968805202077</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2306.223163807901</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2052.642103072081</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V2" t="n">
-        <v>2052.642103072081</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W2" t="n">
-        <v>1699.873447801967</v>
+        <v>1831.290404920692</v>
       </c>
       <c r="X2" t="n">
-        <v>1699.873447801967</v>
+        <v>1457.824646659612</v>
       </c>
       <c r="Y2" t="n">
-        <v>1699.873447801967</v>
+        <v>1457.824646659612</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495379</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4448,10 +4448,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>1006.01552520271</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>837.0793422748035</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>686.9627028624677</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>539.0496092800746</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>392.1596617821642</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>224.1731970904428</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>75.43429895394902</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X4" t="n">
-        <v>1109.244414851923</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y4" t="n">
-        <v>1109.244414851923</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1254.111199477247</v>
+        <v>867.5113594131251</v>
       </c>
       <c r="C5" t="n">
-        <v>1254.111199477247</v>
+        <v>867.5113594131251</v>
       </c>
       <c r="D5" t="n">
-        <v>1254.111199477247</v>
+        <v>509.2456608063746</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>509.2456608063746</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>502.3001600571711</v>
       </c>
       <c r="G5" t="n">
         <v>421.6795797345444</v>
@@ -4567,16 +4567,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4594,13 +4594,13 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
         <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.31341879663</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V5" t="n">
         <v>1644.250531453059</v>
@@ -4640,7 +4640,7 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
@@ -4649,25 +4649,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143493</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L6" t="n">
-        <v>884.908532145821</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701986</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>716.897187706548</v>
+        <v>462.2126995006608</v>
       </c>
       <c r="C7" t="n">
-        <v>547.9610047786412</v>
+        <v>293.276516572754</v>
       </c>
       <c r="D7" t="n">
-        <v>397.8443653663054</v>
+        <v>143.1598771604182</v>
       </c>
       <c r="E7" t="n">
-        <v>249.9312717839123</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>103.0413242860019</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
         <v>51.2467865680031</v>
@@ -4725,16 +4725,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4761,16 +4761,16 @@
         <v>1347.327782578335</v>
       </c>
       <c r="V7" t="n">
-        <v>1347.327782578335</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.327782578335</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="X7" t="n">
-        <v>1119.338231680318</v>
+        <v>864.6537434744307</v>
       </c>
       <c r="Y7" t="n">
-        <v>898.5456525367878</v>
+        <v>643.8611643309006</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1249.079005265437</v>
+        <v>494.0456011520452</v>
       </c>
       <c r="C8" t="n">
-        <v>1249.079005265437</v>
+        <v>494.0456011520452</v>
       </c>
       <c r="D8" t="n">
-        <v>1249.079005265437</v>
+        <v>494.0456011520452</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>494.0456011520452</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>487.1001004028417</v>
       </c>
       <c r="G8" t="n">
         <v>421.6795797345444</v>
@@ -4801,16 +4801,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4825,31 +4825,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.313418796631</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V8" t="n">
-        <v>1975.313418796631</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>1622.544763526517</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X8" t="n">
-        <v>1249.079005265437</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.079005265437</v>
+        <v>880.645441216167</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380223</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694941</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P9" t="n">
         <v>2239.046898434118</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1087.683159487371</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C10" t="n">
-        <v>918.7469765594642</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D10" t="n">
-        <v>768.6303371471284</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4989,25 +4989,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1599.779977788798</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1376.801496983533</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1087.683159487371</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1087.683159487371</v>
+        <v>1438.060467399387</v>
       </c>
       <c r="W10" t="n">
-        <v>1087.683159487371</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="X10" t="n">
-        <v>1087.683159487371</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y10" t="n">
-        <v>1087.683159487371</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5035,46 +5035,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.843151638089</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C13" t="n">
-        <v>572.9069687101821</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="D13" t="n">
-        <v>422.7903292978464</v>
+        <v>650.3841300523919</v>
       </c>
       <c r="E13" t="n">
-        <v>274.8772357154533</v>
+        <v>502.4710364699988</v>
       </c>
       <c r="F13" t="n">
-        <v>127.9872882175429</v>
+        <v>355.5810889720884</v>
       </c>
       <c r="G13" t="n">
-        <v>127.9872882175429</v>
+        <v>188.3849896869684</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683287</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="14">
@@ -5272,19 +5272,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5296,25 +5296,25 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5369,7 +5369,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,55 +5412,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876693</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C16" t="n">
-        <v>580.8993044876693</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D16" t="n">
-        <v>580.8993044876693</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>432.9862109052762</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>286.0962634073658</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>118.9001641222457</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
         <v>2264.108249235165</v>
@@ -5478,10 +5478,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.547769317909</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5509,19 +5509,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,19 +5591,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
         <v>2001.151557821488</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>808.8888553856862</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C22" t="n">
-        <v>639.9526724577793</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D22" t="n">
-        <v>489.8360330454435</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E22" t="n">
-        <v>341.9229394630504</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>195.03299196514</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797183</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5937,25 +5937,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.329899359456</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y22" t="n">
-        <v>990.5373202159259</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
@@ -6013,28 +6013,28 @@
         <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797183</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2306.399037661605</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2086.797572684546</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192586</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075805</v>
@@ -6244,10 +6244,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,7 +6302,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6314,19 +6314,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348531</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>336.3048548543961</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>189.4149073564858</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797186</v>
@@ -6387,10 +6387,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6423,13 +6423,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011316</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
         <v>1948.813509611463</v>
@@ -6460,16 +6460,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6478,37 +6478,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6551,10 +6551,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400667</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121598</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121598</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>274.8772357154528</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797186</v>
+        <v>127.9872882175424</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797186</v>
@@ -6624,10 +6624,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6657,16 +6657,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611854</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138365</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703064</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
         <v>1948.813509611463</v>
@@ -6691,61 +6691,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>135.9796239950296</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
@@ -6934,31 +6934,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793924</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348531</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7098,10 +7098,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2404.986360578632</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="38">
@@ -7165,22 +7165,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7198,10 +7198,10 @@
         <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7247,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516141</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793924</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348531</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.868625753638</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257311</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133953</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310022</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797183</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2269.002343845332</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2049.400878868273</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>2049.400878868273</v>
+        <v>1937.067131165134</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662386</v>
+        <v>1682.382642959247</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1392.965472922287</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>1164.975922024269</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>944.1833428807391</v>
       </c>
     </row>
     <row r="41">
@@ -7399,40 +7399,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793924</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348531</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>411.1294017454277</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7572,10 +7572,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,40 +7636,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793924</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348531</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>696.7084350851671</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C46" t="n">
-        <v>527.7722521572603</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D46" t="n">
-        <v>377.6556127449245</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E46" t="n">
-        <v>229.7425191625314</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F46" t="n">
-        <v>229.7425191625314</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7809,10 +7809,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.149479058937</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y46" t="n">
-        <v>878.3568999154069</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
   </sheetData>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>168.7434581780642</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>265.0304328515151</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780638</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878346</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>193.3273467878351</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>106.4657939283486</v>
+        <v>46.67206947361737</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>115.4620467826928</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>103.8640922513198</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>65.31997266427233</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462314</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>65.54986409393062</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462314</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>108.2431272522971</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>70.88187642684008</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>138.4949402405124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>43.26526345295437</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>131.695219374394</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465767</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="H34" t="n">
-        <v>138.4949402405077</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>119.8635921600924</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.4693302300327</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>4.845153664065236</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>28.78901421003559</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>65.54986409393075</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>30.95754073885493</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>935537.9172236549</v>
+        <v>935537.917223655</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>935537.917223655</v>
+        <v>935537.9172236549</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>935537.9172236549</v>
+        <v>935537.917223655</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>935537.9172236548</v>
+        <v>935537.917223655</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>935537.9172236547</v>
+        <v>935537.917223655</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>935537.9172236548</v>
+        <v>935537.917223655</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>935537.9172236547</v>
+        <v>935537.9172236549</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>935537.9172236548</v>
+        <v>935537.917223655</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>935537.9172236549</v>
+        <v>935537.917223655</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>935537.917223655</v>
+        <v>935537.9172236552</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="D2" t="n">
         <v>492625.0619185701</v>
       </c>
       <c r="E2" t="n">
-        <v>484287.9598140038</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="F2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="G2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="H2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="I2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="H2" t="n">
-        <v>484287.9598140035</v>
-      </c>
-      <c r="I2" t="n">
-        <v>484287.9598140035</v>
-      </c>
-      <c r="J2" t="n">
-        <v>484287.9598140034</v>
-      </c>
       <c r="K2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="L2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="M2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="N2" t="n">
         <v>484287.9598140037</v>
       </c>
-      <c r="N2" t="n">
-        <v>484287.9598140035</v>
-      </c>
       <c r="O2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="P2" t="n">
         <v>484287.9598140037</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
@@ -26432,7 +26432,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
         <v>8117.312426731974</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-849382.4943590583</v>
+        <v>-849382.494359058</v>
       </c>
       <c r="C6" t="n">
-        <v>265369.2892168616</v>
+        <v>265369.2892168617</v>
       </c>
       <c r="D6" t="n">
         <v>265369.2892168617</v>
       </c>
       <c r="E6" t="n">
-        <v>-132784.7033155382</v>
+        <v>-132472.0619866171</v>
       </c>
       <c r="F6" t="n">
-        <v>374700.7383090075</v>
+        <v>375013.3796379289</v>
       </c>
       <c r="G6" t="n">
-        <v>374700.7383090075</v>
+        <v>375013.3796379289</v>
       </c>
       <c r="H6" t="n">
-        <v>374700.738309008</v>
+        <v>375013.3796379289</v>
       </c>
       <c r="I6" t="n">
-        <v>374700.7383090075</v>
+        <v>375013.3796379289</v>
       </c>
       <c r="J6" t="n">
-        <v>207095.5604990248</v>
+        <v>207408.2018279463</v>
       </c>
       <c r="K6" t="n">
-        <v>374700.7383090075</v>
+        <v>375013.3796379287</v>
       </c>
       <c r="L6" t="n">
-        <v>374700.7383090075</v>
+        <v>375013.3796379289</v>
       </c>
       <c r="M6" t="n">
-        <v>242093.4445800809</v>
+        <v>242406.0859090021</v>
       </c>
       <c r="N6" t="n">
-        <v>374700.7383090076</v>
+        <v>375013.379637929</v>
       </c>
       <c r="O6" t="n">
-        <v>374700.7383090076</v>
+        <v>375013.3796379289</v>
       </c>
       <c r="P6" t="n">
-        <v>374700.7383090078</v>
+        <v>375013.3796379289</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,13 +26795,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>157.3043439945911</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>76.55539743269625</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>158.4863373710304</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>80.85095794181413</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>376.2468150416514</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>331.7333282535535</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27782,13 +27782,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>55.4400029600782</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>115.0300077039853</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
@@ -27833,7 +27833,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,13 +27861,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.2286873113438</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>346.7813873113396</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,25 +28061,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>158.3629794988948</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>55.73584717546876</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28976,7 +28976,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>-7.541226902200529e-12</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29213,7 +29213,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>-5.937429109026293e-12</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29432,7 +29432,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-4.713266813875332e-12</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -29514,7 +29514,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29729,7 +29729,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -29751,7 +29751,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29915,7 +29915,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-7.541226902200529e-12</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31293,16 +31293,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31314,7 +31314,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31363,7 +31363,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31375,16 +31375,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31469,7 +31469,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31478,7 +31478,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>575.5951359912044</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>337.5641188593843</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32551,22 +32551,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32739,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32788,25 +32788,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558023</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,10 +32815,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32864,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32976,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33025,37 +33025,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33213,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33262,22 +33262,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,10 +33289,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33450,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33499,22 +33499,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,10 +33526,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175693</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33736,37 +33736,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>162.5000833330458</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33973,25 +33973,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>349.3304751113902</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34161,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,40 +34207,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175693</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34398,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34447,37 +34447,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>535.6747904601048</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>514.7099619750473</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34959,7 +34959,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,19 +35017,19 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215487</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
@@ -35038,7 +35038,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35108,13 +35108,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313194</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>443.0068759113673</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,19 +35494,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>433.4611020691861</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>199.0097390795101</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,13 +36354,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36372,13 +36372,13 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113578</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36524,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113578</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37235,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902966</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>23.94570355317166</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113578</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>211.4890361370312</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113578</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>285.360777932</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113578</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902966</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113578</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
